--- a/teaching/traditional_assets/database/data/taiwan/taiwan_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/taiwan/taiwan_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ16"/>
+  <dimension ref="A1:AQ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.00286</v>
+        <v>0.101</v>
       </c>
       <c r="E2">
-        <v>-0.0342</v>
+        <v>0.12215</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,106 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.003144647208151499</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002660543636727402</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>889.6320000000001</v>
+        <v>445.26</v>
       </c>
       <c r="L2">
-        <v>0.2957287743453879</v>
+        <v>0.3210654591078871</v>
       </c>
       <c r="M2">
-        <v>574.2859999999999</v>
+        <v>319.36</v>
       </c>
       <c r="N2">
-        <v>0.04544984013422394</v>
+        <v>0.0512254587450276</v>
       </c>
       <c r="O2">
-        <v>0.6455320851767921</v>
+        <v>0.7172438575214481</v>
       </c>
       <c r="P2">
-        <v>553.576</v>
+        <v>254.2</v>
       </c>
       <c r="Q2">
-        <v>0.04381082022222926</v>
+        <v>0.04077377133324778</v>
       </c>
       <c r="R2">
-        <v>0.6222527966619905</v>
+        <v>0.570902394106814</v>
       </c>
       <c r="S2">
-        <v>20.71</v>
+        <v>65.16</v>
       </c>
       <c r="T2">
-        <v>0.03606217111334771</v>
+        <v>0.2040330661322645</v>
       </c>
       <c r="U2">
-        <v>3762.43</v>
+        <v>1961.23</v>
       </c>
       <c r="V2">
-        <v>0.2977642533793409</v>
+        <v>0.3145819966636725</v>
       </c>
       <c r="W2">
-        <v>0.04236153685113324</v>
+        <v>0.06183866978150336</v>
       </c>
       <c r="X2">
-        <v>0.06492815159783233</v>
+        <v>0.04578631113149306</v>
       </c>
       <c r="Y2">
-        <v>-0.02256661474669909</v>
+        <v>0.0160523586500103</v>
       </c>
       <c r="Z2">
-        <v>0.08461766368922992</v>
+        <v>0.09385970261359768</v>
       </c>
       <c r="AA2">
-        <v>0.0008667179412875753</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04561887202200577</v>
+        <v>0.03407360144748688</v>
       </c>
       <c r="AC2">
-        <v>-0.04463237487590309</v>
+        <v>-0.03407360144748688</v>
       </c>
       <c r="AD2">
-        <v>25803.468</v>
+        <v>12697.34</v>
       </c>
       <c r="AE2">
-        <v>298.1552607156705</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>26101.62326071567</v>
+        <v>12697.34</v>
       </c>
       <c r="AG2">
-        <v>22339.19326071567</v>
+        <v>10736.11</v>
       </c>
       <c r="AH2">
-        <v>0.6738124486890092</v>
+        <v>0.6706905968495237</v>
       </c>
       <c r="AI2">
-        <v>0.6583534597229294</v>
+        <v>0.6697319034286908</v>
       </c>
       <c r="AJ2">
-        <v>0.6387226678994401</v>
+        <v>0.6326333150859933</v>
       </c>
       <c r="AK2">
-        <v>0.6225322830014639</v>
+        <v>0.6316246813522607</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.309</v>
-      </c>
-      <c r="AN2">
-        <v>373.4707559595316</v>
-      </c>
-      <c r="AP2">
-        <v>323.3300033393013</v>
-      </c>
-      <c r="AQ2">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Capital Futures Corporation (TSEC:6024)</t>
+          <t>Yuanta Futures Co., Ltd. (GTSM:6023)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.106</v>
+        <v>0.0564</v>
       </c>
       <c r="E3">
-        <v>0.155</v>
+        <v>0.0757</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.008800048858671817</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007126800132022951</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>17.3</v>
+        <v>38</v>
       </c>
       <c r="L3">
-        <v>0.2868988391376451</v>
+        <v>0.2999210734017364</v>
       </c>
       <c r="M3">
-        <v>19.3</v>
+        <v>27.6</v>
       </c>
       <c r="N3">
-        <v>0.07574568288854003</v>
+        <v>0.05102606766500278</v>
       </c>
       <c r="O3">
-        <v>1.115606936416185</v>
+        <v>0.7263157894736842</v>
       </c>
       <c r="P3">
-        <v>19.3</v>
+        <v>27.6</v>
       </c>
       <c r="Q3">
-        <v>0.07574568288854003</v>
+        <v>0.05102606766500278</v>
       </c>
       <c r="R3">
-        <v>1.115606936416185</v>
+        <v>0.7263157894736842</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,67 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>133.7</v>
+        <v>203.7</v>
       </c>
       <c r="V3">
-        <v>0.5247252747252746</v>
+        <v>0.3765945646145313</v>
       </c>
       <c r="W3">
-        <v>0.1067242442936459</v>
+        <v>0.1370851370851371</v>
       </c>
       <c r="X3">
-        <v>0.04474285313541318</v>
+        <v>0.03148050784604495</v>
       </c>
       <c r="Y3">
-        <v>0.06198139115823273</v>
+        <v>0.1056046292390921</v>
       </c>
       <c r="Z3">
-        <v>1.350510414250898</v>
+        <v>1.174997681535751</v>
       </c>
       <c r="AA3">
-        <v>0.009624817798581669</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04453511441156555</v>
+        <v>0.03144534896273581</v>
       </c>
       <c r="AC3">
-        <v>-0.03491029661298388</v>
+        <v>-0.03144534896273581</v>
       </c>
       <c r="AD3">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AE3">
-        <v>1.331785269110447</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.951785269110448</v>
+        <v>1.61</v>
       </c>
       <c r="AG3">
-        <v>-130.7482147308895</v>
+        <v>-202.09</v>
       </c>
       <c r="AH3">
-        <v>0.01145204587440037</v>
+        <v>0.002967687231571768</v>
       </c>
       <c r="AI3">
-        <v>0.01828276636390464</v>
+        <v>0.004749122444765642</v>
       </c>
       <c r="AJ3">
-        <v>-1.053980919720359</v>
+        <v>-0.5964699979339452</v>
       </c>
       <c r="AK3">
-        <v>-4.711344277963293</v>
+        <v>-1.493533367822038</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>2.032622333751569</v>
-      </c>
-      <c r="AP3">
-        <v>-164.0504576297234</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yuanta Futures Co., Ltd. (GTSM:6023)</t>
+          <t>Capital Futures Corporation (TSEC:6024)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.08380000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="E4">
-        <v>0.0687</v>
+        <v>0.07730000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -862,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.00751173340543545</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.006066574818175749</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>39.2</v>
+        <v>21.7</v>
       </c>
       <c r="L4">
-        <v>0.3865877712031558</v>
+        <v>0.2750316856780735</v>
       </c>
       <c r="M4">
-        <v>20.9</v>
+        <v>13.8</v>
       </c>
       <c r="N4">
-        <v>0.04841324994208941</v>
+        <v>0.04760262159365299</v>
       </c>
       <c r="O4">
-        <v>0.5331632653061223</v>
+        <v>0.6359447004608295</v>
       </c>
       <c r="P4">
-        <v>20.9</v>
+        <v>13.8</v>
       </c>
       <c r="Q4">
-        <v>0.04841324994208941</v>
+        <v>0.04760262159365299</v>
       </c>
       <c r="R4">
-        <v>0.5331632653061223</v>
+        <v>0.6359447004608295</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -898,67 +883,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>170.9</v>
+        <v>176.8</v>
       </c>
       <c r="V4">
-        <v>0.3958767662728747</v>
+        <v>0.609865470852018</v>
       </c>
       <c r="W4">
-        <v>0.1514098107377366</v>
+        <v>0.1377777777777778</v>
       </c>
       <c r="X4">
-        <v>0.04467815158079901</v>
+        <v>0.03163054691097723</v>
       </c>
       <c r="Y4">
-        <v>0.1067316591569376</v>
+        <v>0.1061472308668005</v>
       </c>
       <c r="Z4">
-        <v>0.9727313737843266</v>
+        <v>3.193168481120237</v>
       </c>
       <c r="AA4">
-        <v>0.005901147657049497</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04452777956520632</v>
+        <v>0.03149470711626923</v>
       </c>
       <c r="AC4">
-        <v>-0.03862663190815682</v>
+        <v>-0.03149470711626923</v>
       </c>
       <c r="AD4">
-        <v>1.53</v>
+        <v>3.32</v>
       </c>
       <c r="AE4">
-        <v>2.091551163444226</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.621551163444226</v>
+        <v>3.32</v>
       </c>
       <c r="AG4">
-        <v>-167.2784488365558</v>
+        <v>-173.48</v>
       </c>
       <c r="AH4">
-        <v>0.008319255395845293</v>
+        <v>0.01132255644226178</v>
       </c>
       <c r="AI4">
-        <v>0.01289627220005065</v>
+        <v>0.01511014017840888</v>
       </c>
       <c r="AJ4">
-        <v>-0.6326203295477897</v>
+        <v>-1.490121972169731</v>
       </c>
       <c r="AK4">
-        <v>-1.52179847414841</v>
+        <v>-4.041938490214354</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>1.296610169491526</v>
-      </c>
-      <c r="AP4">
-        <v>-141.7613973191151</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grand Fortune Securities Co.,Ltd (GTSM:6026)</t>
+          <t>Ta Ching Securities Co., Ltd. (GTSM:6021)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -978,10 +957,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.119</v>
-      </c>
-      <c r="E5">
-        <v>-0.266</v>
+        <v>0.101</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -990,106 +966,94 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03290368783733421</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0314908205497945</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="L5">
-        <v>0.2428571428571429</v>
+        <v>0.1434042553191489</v>
       </c>
       <c r="M5">
-        <v>1.57</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.02041612483745123</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.461764705882353</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>1.57</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.02041612483745123</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.461764705882353</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>39.6</v>
+        <v>15.2</v>
       </c>
       <c r="V5">
-        <v>0.5149544863459038</v>
+        <v>0.07014305491462852</v>
       </c>
       <c r="W5">
-        <v>0.03497942386831276</v>
+        <v>0.02257200267916946</v>
       </c>
       <c r="X5">
-        <v>0.05557727511576634</v>
+        <v>0.03418894346237145</v>
       </c>
       <c r="Y5">
-        <v>-0.02059785124745358</v>
+        <v>-0.01161694078320199</v>
       </c>
       <c r="Z5">
-        <v>0.1512830828544668</v>
+        <v>0.1672121815853138</v>
       </c>
       <c r="AA5">
-        <v>0.004764028414389708</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04533587412756546</v>
+        <v>0.03222494500743075</v>
       </c>
       <c r="AC5">
-        <v>-0.04057184571317575</v>
+        <v>-0.03222494500743075</v>
       </c>
       <c r="AD5">
-        <v>40.4</v>
+        <v>33.8</v>
       </c>
       <c r="AE5">
-        <v>1.641741851386605</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>42.0417418513866</v>
+        <v>33.8</v>
       </c>
       <c r="AG5">
-        <v>2.441741851386602</v>
+        <v>18.6</v>
       </c>
       <c r="AH5">
-        <v>0.3534649921632746</v>
+        <v>0.1349301397205589</v>
       </c>
       <c r="AI5">
-        <v>0.2756081144815146</v>
+        <v>0.1725370086778969</v>
       </c>
       <c r="AJ5">
-        <v>0.03077499679752656</v>
+        <v>0.07904802379940501</v>
       </c>
       <c r="AK5">
-        <v>0.02161948108255269</v>
+        <v>0.1029330381848367</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>-0.309</v>
-      </c>
-      <c r="AN5">
-        <v>51.2040557667934</v>
-      </c>
-      <c r="AP5">
-        <v>3.094729849666163</v>
-      </c>
-      <c r="AQ5">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1100,7 +1064,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reliance Securities Co., Ltd. (GTSM:6027)</t>
+          <t>Concord International Securities Co., Ltd (GTSM:5864)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1108,107 +1072,110 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.176</v>
+      </c>
+      <c r="E6">
+        <v>1.722</v>
+      </c>
       <c r="G6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.0470192816068656</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.0470192816068656</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-8.960000000000001</v>
+        <v>6.98</v>
       </c>
       <c r="L6">
-        <v>2.274111675126904</v>
+        <v>0.4622516556291391</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>4.51</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.03770903010033445</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6461318051575931</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>4.51</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.03770903010033445</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.6461318051575931</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>7.91</v>
+        <v>2.72</v>
       </c>
       <c r="V6">
-        <v>0.4765060240963855</v>
+        <v>0.02274247491638796</v>
       </c>
       <c r="W6">
-        <v>-0.1743190661478599</v>
+        <v>0.060801393728223</v>
       </c>
       <c r="X6">
-        <v>0.04607158640223475</v>
+        <v>0.03539454239754258</v>
       </c>
       <c r="Y6">
-        <v>-0.2203906525500947</v>
+        <v>0.02540685133068042</v>
       </c>
       <c r="Z6">
-        <v>-0.08302826390325312</v>
+        <v>0.1174366153367553</v>
       </c>
       <c r="AA6">
-        <v>0.003903929321796212</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04502017437384457</v>
+        <v>0.03250928296265675</v>
       </c>
       <c r="AC6">
-        <v>-0.04111624505204835</v>
+        <v>-0.03250928296265675</v>
       </c>
       <c r="AD6">
-        <v>0.918</v>
+        <v>26.8</v>
       </c>
       <c r="AE6">
-        <v>0.3637201523447477</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.281720152344748</v>
+        <v>26.8</v>
       </c>
       <c r="AG6">
-        <v>-6.628279847655252</v>
+        <v>24.08</v>
       </c>
       <c r="AH6">
-        <v>0.07167767650008111</v>
+        <v>0.1830601092896175</v>
       </c>
       <c r="AI6">
-        <v>0.02901019127198302</v>
+        <v>0.1755075311067452</v>
       </c>
       <c r="AJ6">
-        <v>-0.6647077682075423</v>
+        <v>0.1675946547884187</v>
       </c>
       <c r="AK6">
-        <v>-0.1827396059468873</v>
+        <v>0.1605547406320843</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>3.558139534883721</v>
-      </c>
-      <c r="AP6">
-        <v>-25.69100716145446</v>
       </c>
     </row>
     <row r="7">
@@ -1219,7 +1186,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Horizon Securities Co., Ltd. (GTSM:6015)</t>
+          <t>Reliance Securities Co.,Ltd. (GTSM:6027)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1228,7 +1195,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.118</v>
+        <v>0.0007199999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1237,25 +1204,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.04611491135831383</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04611491135831383</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>-2.52</v>
+        <v>-1.89</v>
       </c>
       <c r="L7">
-        <v>-0.1333333333333333</v>
+        <v>-0.3487084870848708</v>
       </c>
       <c r="M7">
-        <v>3.72</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.04564417177914111</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>-1.476190476190476</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1267,73 +1234,64 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>3.72</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>46.9</v>
+        <v>2.2</v>
       </c>
       <c r="V7">
-        <v>0.5754601226993865</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="W7">
-        <v>-0.01890472618154539</v>
+        <v>-0.04405594405594405</v>
       </c>
       <c r="X7">
-        <v>0.07923617062318154</v>
+        <v>0.03442060393586573</v>
       </c>
       <c r="Y7">
-        <v>-0.09814089680472693</v>
+        <v>-0.07847654799180978</v>
       </c>
       <c r="Z7">
-        <v>0.08475635027180439</v>
+        <v>0.1509412944190709</v>
       </c>
       <c r="AA7">
-        <v>0.003908531579838458</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04598732971486705</v>
+        <v>0.03304571346343396</v>
       </c>
       <c r="AC7">
-        <v>-0.04207879813502859</v>
+        <v>-0.03304571346343396</v>
       </c>
       <c r="AD7">
-        <v>133.7</v>
+        <v>5.41</v>
       </c>
       <c r="AE7">
-        <v>6.092140876639342</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>139.7921408766393</v>
+        <v>5.41</v>
       </c>
       <c r="AG7">
-        <v>92.89214087663933</v>
+        <v>3.21</v>
       </c>
       <c r="AH7">
-        <v>0.6317085655317842</v>
+        <v>0.144613739641807</v>
       </c>
       <c r="AI7">
-        <v>0.5279316085962134</v>
+        <v>0.1066850719779136</v>
       </c>
       <c r="AJ7">
-        <v>0.5326624262405777</v>
+        <v>0.0911672820221528</v>
       </c>
       <c r="AK7">
-        <v>0.4263216676971872</v>
+        <v>0.06617192331478046</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>63.97129186602871</v>
-      </c>
-      <c r="AP7">
-        <v>44.44600041944466</v>
       </c>
     </row>
     <row r="8">
@@ -1344,7 +1302,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jih Sun Financial Holding Co., Ltd. (GTSM:5820)</t>
+          <t>TaChan Securities Co.,Ltd. (GTSM:6020)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1353,10 +1311,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.00286</v>
-      </c>
-      <c r="E8">
-        <v>-0.0342</v>
+        <v>1.181</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1365,34 +1320,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01938207174668931</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01848502970815663</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>74.3</v>
+        <v>6.04</v>
       </c>
       <c r="L8">
-        <v>0.2765165612206922</v>
+        <v>0.5252173913043479</v>
       </c>
       <c r="M8">
-        <v>57.8</v>
+        <v>2.83</v>
       </c>
       <c r="N8">
-        <v>0.04813457694870087</v>
+        <v>0.01945017182130584</v>
       </c>
       <c r="O8">
-        <v>0.7779273216689098</v>
+        <v>0.4685430463576159</v>
       </c>
       <c r="P8">
-        <v>57.8</v>
+        <v>2.83</v>
       </c>
       <c r="Q8">
-        <v>0.04813457694870087</v>
+        <v>0.01945017182130584</v>
       </c>
       <c r="R8">
-        <v>0.7779273216689098</v>
+        <v>0.4685430463576159</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1401,67 +1356,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>527.2</v>
+        <v>59.8</v>
       </c>
       <c r="V8">
-        <v>0.4390406395736177</v>
+        <v>0.4109965635738831</v>
       </c>
       <c r="W8">
-        <v>0.05159722222222222</v>
+        <v>0.04744697564807542</v>
       </c>
       <c r="X8">
-        <v>0.07427902807989832</v>
+        <v>0.0412461799383726</v>
       </c>
       <c r="Y8">
-        <v>-0.0226818058576761</v>
+        <v>0.006200795709702819</v>
       </c>
       <c r="Z8">
-        <v>0.08696974468074034</v>
+        <v>0.09504132231404959</v>
       </c>
       <c r="AA8">
-        <v>0.001607638314134283</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04590186991644608</v>
+        <v>0.03353547492628523</v>
       </c>
       <c r="AC8">
-        <v>-0.0442942316023118</v>
+        <v>-0.03353547492628523</v>
       </c>
       <c r="AD8">
-        <v>1743.1</v>
+        <v>80.7</v>
       </c>
       <c r="AE8">
-        <v>22.56018660832292</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1765.660186608323</v>
+        <v>80.7</v>
       </c>
       <c r="AG8">
-        <v>1238.460186608323</v>
+        <v>20.90000000000001</v>
       </c>
       <c r="AH8">
-        <v>0.595207781509812</v>
+        <v>0.356763925729443</v>
       </c>
       <c r="AI8">
-        <v>0.5479570501309567</v>
+        <v>0.3668181818181818</v>
       </c>
       <c r="AJ8">
-        <v>0.5077195919515022</v>
+        <v>0.1256009615384616</v>
       </c>
       <c r="AK8">
-        <v>0.4595296953894374</v>
+        <v>0.1304619225967541</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>179.3312757201646</v>
-      </c>
-      <c r="AP8">
-        <v>127.4135994453007</v>
       </c>
     </row>
     <row r="9">
@@ -1472,7 +1421,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ta Ching Securities Co., Ltd. (GTSM:6021)</t>
+          <t>Grand Fortune Securities Co.,Ltd (GTSM:6026)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1481,10 +1430,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.0572</v>
-      </c>
-      <c r="E9">
-        <v>-0.473</v>
+        <v>0.252</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1493,34 +1439,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004492289958536092</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.002246144979268046</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.219</v>
+        <v>5.57</v>
       </c>
       <c r="L9">
-        <v>0.01431372549019608</v>
+        <v>0.2856410256410257</v>
       </c>
       <c r="M9">
-        <v>9.869999999999999</v>
+        <v>5.94</v>
       </c>
       <c r="N9">
-        <v>0.07321958456973293</v>
+        <v>0.066</v>
       </c>
       <c r="O9">
-        <v>45.06849315068493</v>
+        <v>1.066427289048474</v>
       </c>
       <c r="P9">
-        <v>9.869999999999999</v>
+        <v>5.94</v>
       </c>
       <c r="Q9">
-        <v>0.07321958456973293</v>
+        <v>0.066</v>
       </c>
       <c r="R9">
-        <v>45.06849315068493</v>
+        <v>1.066427289048474</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1529,67 +1475,61 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>23.4</v>
+        <v>35.9</v>
       </c>
       <c r="V9">
-        <v>0.1735905044510385</v>
+        <v>0.3988888888888888</v>
       </c>
       <c r="W9">
-        <v>0.001342734518700184</v>
+        <v>0.05695296523517383</v>
       </c>
       <c r="X9">
-        <v>0.04746289030276987</v>
+        <v>0.04578631113149306</v>
       </c>
       <c r="Y9">
-        <v>-0.04612015578406969</v>
+        <v>0.01116665410368076</v>
       </c>
       <c r="Z9">
-        <v>0.1075334265164539</v>
+        <v>0.1977687626774848</v>
       </c>
       <c r="AA9">
-        <v>0.0002415356660734222</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.0448064590483031</v>
+        <v>0.03407360144748688</v>
       </c>
       <c r="AC9">
-        <v>-0.04456492338222968</v>
+        <v>-0.03407360144748688</v>
       </c>
       <c r="AD9">
-        <v>16.3</v>
+        <v>73</v>
       </c>
       <c r="AE9">
-        <v>3.371339818171989</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>19.67133981817199</v>
+        <v>73</v>
       </c>
       <c r="AG9">
-        <v>-3.728660181828008</v>
+        <v>37.1</v>
       </c>
       <c r="AH9">
-        <v>0.1273462108979381</v>
+        <v>0.4478527607361963</v>
       </c>
       <c r="AI9">
-        <v>0.116418203461842</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="AJ9">
-        <v>-0.02844756288446103</v>
+        <v>0.2918961447678993</v>
       </c>
       <c r="AK9">
-        <v>-0.02561397172331687</v>
+        <v>0.2407527579493835</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>21.93808882907133</v>
-      </c>
-      <c r="AP9">
-        <v>-5.018385170697185</v>
       </c>
     </row>
     <row r="10">
@@ -1600,7 +1540,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Concord International Securities Co., Ltd (GTSM:5864)</t>
+          <t>JihSun Financial Holding Co.,Ltd. (GTSM:5820)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1609,7 +1549,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.145</v>
+        <v>0.0395</v>
+      </c>
+      <c r="E10">
+        <v>0.0575</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1618,34 +1561,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.00371334748839576</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.003338386423649547</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>4.6</v>
+        <v>90</v>
       </c>
       <c r="L10">
-        <v>0.4070796460176991</v>
+        <v>0.2770935960591133</v>
       </c>
       <c r="M10">
-        <v>4.33</v>
+        <v>53.3</v>
       </c>
       <c r="N10">
-        <v>0.05859269282814614</v>
+        <v>0.03150118203309692</v>
       </c>
       <c r="O10">
-        <v>0.9413043478260871</v>
+        <v>0.5922222222222222</v>
       </c>
       <c r="P10">
-        <v>4.33</v>
+        <v>53.3</v>
       </c>
       <c r="Q10">
-        <v>0.05859269282814614</v>
+        <v>0.03150118203309692</v>
       </c>
       <c r="R10">
-        <v>0.9413043478260871</v>
+        <v>0.5922222222222222</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1654,67 +1597,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>4.32</v>
+        <v>903</v>
       </c>
       <c r="V10">
-        <v>0.0584573748308525</v>
+        <v>0.5336879432624113</v>
       </c>
       <c r="W10">
-        <v>0.03868797308662741</v>
+        <v>0.06183866978150336</v>
       </c>
       <c r="X10">
-        <v>0.04949193310715011</v>
+        <v>0.04722383454419798</v>
       </c>
       <c r="Y10">
-        <v>-0.0108039600205227</v>
+        <v>0.01461483523730538</v>
       </c>
       <c r="Z10">
-        <v>0.08116055522037773</v>
+        <v>0.1216370064114087</v>
       </c>
       <c r="AA10">
-        <v>0.0002709452956835684</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04497077166526007</v>
+        <v>0.034213581672186</v>
       </c>
       <c r="AC10">
-        <v>-0.0446998263695765</v>
+        <v>-0.034213581672186</v>
       </c>
       <c r="AD10">
-        <v>18.1</v>
+        <v>1509.8</v>
       </c>
       <c r="AE10">
-        <v>0.09019586690563956</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>18.19019586690564</v>
+        <v>1509.8</v>
       </c>
       <c r="AG10">
-        <v>13.87019586690564</v>
+        <v>606.8</v>
       </c>
       <c r="AH10">
-        <v>0.1975258679349018</v>
+        <v>0.4715472546692485</v>
       </c>
       <c r="AI10">
-        <v>0.1367784726410215</v>
+        <v>0.4831514608467471</v>
       </c>
       <c r="AJ10">
-        <v>0.1580285395276814</v>
+        <v>0.2639638072037584</v>
       </c>
       <c r="AK10">
-        <v>0.1077964929909079</v>
+        <v>0.2730995994419191</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>301.6666666666667</v>
-      </c>
-      <c r="AP10">
-        <v>231.169931115094</v>
       </c>
     </row>
     <row r="11">
@@ -1725,7 +1662,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TaChan Securities Co.,Ltd. (GTSM:6020)</t>
+          <t>Concord Securities Co.,Ltd. (GTSM:6016)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1734,10 +1671,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.211</v>
+        <v>0.0697</v>
       </c>
       <c r="E11">
-        <v>-0.383</v>
+        <v>0.7070000000000001</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1746,103 +1683,97 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.004378563401134651</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.004378563401134651</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.614</v>
+        <v>26.3</v>
       </c>
       <c r="L11">
-        <v>0.1570332480818414</v>
+        <v>0.2563352826510721</v>
       </c>
       <c r="M11">
-        <v>0.216</v>
+        <v>12.38</v>
       </c>
       <c r="N11">
-        <v>0.001969006381039198</v>
+        <v>0.04179608372721134</v>
       </c>
       <c r="O11">
-        <v>0.3517915309446254</v>
+        <v>0.4707224334600761</v>
       </c>
       <c r="P11">
-        <v>0.216</v>
+        <v>6.73</v>
       </c>
       <c r="Q11">
-        <v>0.001969006381039198</v>
+        <v>0.02272113436866982</v>
       </c>
       <c r="R11">
-        <v>0.3517915309446254</v>
+        <v>0.255893536121673</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.4563812600969305</v>
       </c>
       <c r="U11">
-        <v>52.1</v>
+        <v>58.2</v>
       </c>
       <c r="V11">
-        <v>0.4749316317228806</v>
+        <v>0.1964888588791357</v>
       </c>
       <c r="W11">
-        <v>0.00480814408770556</v>
+        <v>0.1132644272179156</v>
       </c>
       <c r="X11">
-        <v>0.05296674644778157</v>
+        <v>0.04926752851895325</v>
       </c>
       <c r="Y11">
-        <v>-0.04815860236007601</v>
+        <v>0.06399689869896236</v>
       </c>
       <c r="Z11">
-        <v>0.04477300932955646</v>
+        <v>0.2181586221560706</v>
       </c>
       <c r="AA11">
-        <v>0.0001960414600090562</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04519820982810302</v>
+        <v>0.0343930962966145</v>
       </c>
       <c r="AC11">
-        <v>-0.04500216836809396</v>
+        <v>-0.0343930962966145</v>
       </c>
       <c r="AD11">
-        <v>45.8</v>
+        <v>298.5</v>
       </c>
       <c r="AE11">
-        <v>0.02939908550781757</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>45.82939908550782</v>
+        <v>298.5</v>
       </c>
       <c r="AG11">
-        <v>-6.270600914492185</v>
+        <v>240.3</v>
       </c>
       <c r="AH11">
-        <v>0.2946671134523672</v>
+        <v>0.5019337481082898</v>
       </c>
       <c r="AI11">
-        <v>0.2647118243786711</v>
+        <v>0.5238680238680239</v>
       </c>
       <c r="AJ11">
-        <v>-0.06062687175923853</v>
+        <v>0.4479030754892824</v>
       </c>
       <c r="AK11">
-        <v>-0.05181055976376432</v>
+        <v>0.4697028928850664</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>1991.304347826087</v>
-      </c>
-      <c r="AP11">
-        <v>-272.6348223692254</v>
       </c>
     </row>
     <row r="12">
@@ -1853,7 +1784,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Concord Securities Co.,Ltd. (GTSM:6016)</t>
+          <t>President Securities Corporation (TSEC:2855)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1862,10 +1793,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.04940000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E12">
-        <v>-0.399</v>
+        <v>0.194</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1874,103 +1805,97 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01644385738169154</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.008221928690845771</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.479</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="L12">
-        <v>0.008202054794520549</v>
+        <v>0.3252268602540835</v>
       </c>
       <c r="M12">
-        <v>14.32</v>
+        <v>47.4</v>
       </c>
       <c r="N12">
-        <v>0.0866303690260133</v>
+        <v>0.05170157068062827</v>
       </c>
       <c r="O12">
-        <v>29.89561586638831</v>
+        <v>0.5290178571428572</v>
       </c>
       <c r="P12">
-        <v>4.79</v>
+        <v>47.4</v>
       </c>
       <c r="Q12">
-        <v>0.02897761645493043</v>
+        <v>0.05170157068062827</v>
       </c>
       <c r="R12">
-        <v>10</v>
+        <v>0.5290178571428572</v>
       </c>
       <c r="S12">
-        <v>9.530000000000001</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.6655027932960894</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>67.3</v>
+        <v>167.8</v>
       </c>
       <c r="V12">
-        <v>0.4071385359951603</v>
+        <v>0.1830279232111693</v>
       </c>
       <c r="W12">
-        <v>0.001978521272201569</v>
+        <v>0.105623010727337</v>
       </c>
       <c r="X12">
-        <v>0.08244759139508691</v>
+        <v>0.05926715891644085</v>
       </c>
       <c r="Y12">
-        <v>-0.08046907012288534</v>
+        <v>0.04635585181089617</v>
       </c>
       <c r="Z12">
-        <v>0.1190019177980228</v>
+        <v>0.1494885916601101</v>
       </c>
       <c r="AA12">
-        <v>0.0009784252822092336</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04603492133761616</v>
+        <v>0.03503917000844067</v>
       </c>
       <c r="AC12">
-        <v>-0.04505649605540693</v>
+        <v>-0.03503917000844067</v>
       </c>
       <c r="AD12">
-        <v>305.4</v>
+        <v>1441.8</v>
       </c>
       <c r="AE12">
-        <v>4.34839364454607</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>309.7483936445461</v>
+        <v>1441.8</v>
       </c>
       <c r="AG12">
-        <v>242.4483936445461</v>
+        <v>1274</v>
       </c>
       <c r="AH12">
-        <v>0.6520354511004086</v>
+        <v>0.6112948359196133</v>
       </c>
       <c r="AI12">
-        <v>0.5699683673131686</v>
+        <v>0.6011507671781187</v>
       </c>
       <c r="AJ12">
-        <v>0.594602940007901</v>
+        <v>0.5815227314223115</v>
       </c>
       <c r="AK12">
-        <v>0.5091866251795831</v>
+        <v>0.5711467766520218</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>166.8852459016393</v>
-      </c>
-      <c r="AP12">
-        <v>132.4854610079487</v>
       </c>
     </row>
     <row r="13">
@@ -1981,7 +1906,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>President Securities Corporation (TSEC:2855)</t>
+          <t>Capital Securities Corporation (TSEC:6005)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1990,10 +1915,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.00813</v>
+        <v>0.07150000000000001</v>
       </c>
       <c r="E13">
-        <v>0.004719999999999999</v>
+        <v>0.167</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2002,103 +1927,97 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.008794800249070787</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.008077685767223477</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>53.5</v>
+        <v>103.2</v>
       </c>
       <c r="L13">
-        <v>0.3220951234196268</v>
+        <v>0.3580846634281749</v>
       </c>
       <c r="M13">
-        <v>38.36</v>
+        <v>112.3</v>
       </c>
       <c r="N13">
-        <v>0.05786694825765576</v>
+        <v>0.1072485913475313</v>
       </c>
       <c r="O13">
-        <v>0.7170093457943925</v>
+        <v>1.088178294573643</v>
       </c>
       <c r="P13">
-        <v>30.9</v>
+        <v>56.9</v>
       </c>
       <c r="Q13">
-        <v>0.04661336551516065</v>
+        <v>0.054340559640913</v>
       </c>
       <c r="R13">
-        <v>0.5775700934579439</v>
+        <v>0.5513565891472868</v>
       </c>
       <c r="S13">
-        <v>7.460000000000001</v>
+        <v>55.4</v>
       </c>
       <c r="T13">
-        <v>0.194473409801877</v>
+        <v>0.4933214603739982</v>
       </c>
       <c r="U13">
-        <v>209.8</v>
+        <v>280.7</v>
       </c>
       <c r="V13">
-        <v>0.3164881580932268</v>
+        <v>0.268073727437685</v>
       </c>
       <c r="W13">
-        <v>0.06362230943037223</v>
+        <v>0.09227467811158797</v>
       </c>
       <c r="X13">
-        <v>0.08153335547408573</v>
+        <v>0.06717889610597011</v>
       </c>
       <c r="Y13">
-        <v>-0.0179110460437135</v>
+        <v>0.02509578200561786</v>
       </c>
       <c r="Z13">
-        <v>0.09346867681205122</v>
+        <v>0.1239623209600413</v>
       </c>
       <c r="AA13">
-        <v>0.0007550106003659169</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04602191626103227</v>
+        <v>0.03537905862813059</v>
       </c>
       <c r="AC13">
-        <v>-0.04526690566066635</v>
+        <v>-0.03537905862813059</v>
       </c>
       <c r="AD13">
-        <v>1205.8</v>
+        <v>2114.7</v>
       </c>
       <c r="AE13">
-        <v>6.445918393146712</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1212.245918393147</v>
+        <v>2114.7</v>
       </c>
       <c r="AG13">
-        <v>1002.445918393147</v>
+        <v>1834</v>
       </c>
       <c r="AH13">
-        <v>0.6464808453050666</v>
+        <v>0.6688278828515403</v>
       </c>
       <c r="AI13">
-        <v>0.5876855251942377</v>
+        <v>0.6212579688004936</v>
       </c>
       <c r="AJ13">
-        <v>0.6019445613800064</v>
+        <v>0.6365624240741384</v>
       </c>
       <c r="AK13">
-        <v>0.5410011746389535</v>
+        <v>0.587218237704918</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>438.4727272727272</v>
-      </c>
-      <c r="AP13">
-        <v>364.5257885065988</v>
       </c>
     </row>
     <row r="14">
@@ -2109,7 +2028,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Yuanta Financial Holding Co., Ltd (TSEC:2885)</t>
+          <t>Horizon Securities Co., Ltd. (GTSM:6015)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2118,10 +2037,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.124</v>
-      </c>
-      <c r="E14">
-        <v>0.0363</v>
+        <v>0.134</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2130,103 +2046,97 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0001438737501699122</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0001252120676236013</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>617.6</v>
+        <v>4.99</v>
       </c>
       <c r="L14">
-        <v>0.3020639733933288</v>
+        <v>0.1549689440993789</v>
       </c>
       <c r="M14">
-        <v>338</v>
+        <v>5.9</v>
       </c>
       <c r="N14">
-        <v>0.04289067952541083</v>
+        <v>0.04357459379615953</v>
       </c>
       <c r="O14">
-        <v>0.5472797927461139</v>
+        <v>1.182364729458918</v>
       </c>
       <c r="P14">
-        <v>338</v>
+        <v>1.79</v>
       </c>
       <c r="Q14">
-        <v>0.04289067952541083</v>
+        <v>0.01322008862629247</v>
       </c>
       <c r="R14">
-        <v>0.5472797927461139</v>
+        <v>0.3587174348697394</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>0.6966101694915254</v>
       </c>
       <c r="U14">
-        <v>2208</v>
+        <v>46.9</v>
       </c>
       <c r="V14">
-        <v>0.2801852674322695</v>
+        <v>0.3463810930576071</v>
       </c>
       <c r="W14">
-        <v>0.08682571593257511</v>
+        <v>0.03992</v>
       </c>
       <c r="X14">
-        <v>0.08328234527156683</v>
+        <v>0.07040153705133617</v>
       </c>
       <c r="Y14">
-        <v>0.00354337066100828</v>
+        <v>-0.03048153705133617</v>
       </c>
       <c r="Z14">
-        <v>0.0998967653036848</v>
+        <v>0.1520302171860246</v>
       </c>
       <c r="AA14">
-        <v>1.250828053258401e-05</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.04604644389474268</v>
+        <v>0.03549030502250908</v>
       </c>
       <c r="AC14">
-        <v>-0.04603393561421009</v>
+        <v>-0.03549030502250908</v>
       </c>
       <c r="AD14">
-        <v>14872.3</v>
+        <v>298.1</v>
       </c>
       <c r="AE14">
-        <v>219.529178652013</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>15091.82917865201</v>
+        <v>298.1</v>
       </c>
       <c r="AG14">
-        <v>12883.82917865201</v>
+        <v>251.2</v>
       </c>
       <c r="AH14">
-        <v>0.6569568571512862</v>
+        <v>0.6876585928489043</v>
       </c>
       <c r="AI14">
-        <v>0.6549213046920055</v>
+        <v>0.6905258281213805</v>
       </c>
       <c r="AJ14">
-        <v>0.6204789505985095</v>
+        <v>0.6497672012415934</v>
       </c>
       <c r="AK14">
-        <v>0.6183526896602495</v>
+        <v>0.6528066528066528</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>336.4773755656108</v>
-      </c>
-      <c r="AP14">
-        <v>291.4893479333035</v>
       </c>
     </row>
     <row r="15">
@@ -2246,10 +2156,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.00103</v>
+        <v>0.0151</v>
       </c>
       <c r="E15">
-        <v>-0.00928</v>
+        <v>0.00038</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2258,34 +2168,34 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.00544787174676024</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.004382559174418056</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>39.8</v>
+        <v>51.4</v>
       </c>
       <c r="L15">
-        <v>0.6238244514106583</v>
+        <v>0.6200241254523522</v>
       </c>
       <c r="M15">
-        <v>34.1</v>
+        <v>33.4</v>
       </c>
       <c r="N15">
-        <v>0.05063855063855064</v>
+        <v>0.04689035518742103</v>
       </c>
       <c r="O15">
-        <v>0.8567839195979901</v>
+        <v>0.6498054474708171</v>
       </c>
       <c r="P15">
-        <v>34.1</v>
+        <v>33.4</v>
       </c>
       <c r="Q15">
-        <v>0.05063855063855064</v>
+        <v>0.04689035518742103</v>
       </c>
       <c r="R15">
-        <v>0.8567839195979901</v>
+        <v>0.6498054474708171</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2294,195 +2204,61 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>10.5</v>
+        <v>8.31</v>
       </c>
       <c r="V15">
-        <v>0.01559251559251559</v>
+        <v>0.01166643268285835</v>
       </c>
       <c r="W15">
-        <v>0.0525204539456321</v>
+        <v>0.06774746276525635</v>
       </c>
       <c r="X15">
-        <v>0.2204056466446953</v>
+        <v>0.2006666277044524</v>
       </c>
       <c r="Y15">
-        <v>-0.1678851926990632</v>
+        <v>-0.132919164939196</v>
       </c>
       <c r="Z15">
-        <v>0.009994772124916184</v>
+        <v>0.0125642230339037</v>
       </c>
       <c r="AA15">
-        <v>4.380268027226927e-05</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.04660793732211711</v>
+        <v>0.03677610124753541</v>
       </c>
       <c r="AC15">
-        <v>-0.04656413464184484</v>
+        <v>-0.03677610124753541</v>
       </c>
       <c r="AD15">
-        <v>5849.9</v>
+        <v>6809.8</v>
       </c>
       <c r="AE15">
-        <v>0.4171289127834834</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>5850.317128912783</v>
+        <v>6809.8</v>
       </c>
       <c r="AG15">
-        <v>5839.817128912783</v>
+        <v>6801.49</v>
       </c>
       <c r="AH15">
-        <v>0.8967766402660954</v>
+        <v>0.9053056992063386</v>
       </c>
       <c r="AI15">
-        <v>0.8852022948040369</v>
+        <v>0.8887641769227758</v>
       </c>
       <c r="AJ15">
-        <v>0.8966102332116775</v>
+        <v>0.9052009704822732</v>
       </c>
       <c r="AK15">
-        <v>0.8850196210485539</v>
+        <v>0.8886434041174373</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>13572.85382830626</v>
-      </c>
-      <c r="AP15">
-        <v>13549.45969585333</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Taiwan</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Capital Securities Corporation (TSEC:6005)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>-0.0268</v>
-      </c>
-      <c r="E16">
-        <v>-0.052</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>-0.00942596271843393</v>
-      </c>
-      <c r="J16">
-        <v>-0.007769686412194825</v>
-      </c>
-      <c r="K16">
-        <v>50.1</v>
-      </c>
-      <c r="L16">
-        <v>0.2700808625336927</v>
-      </c>
-      <c r="M16">
-        <v>31.8</v>
-      </c>
-      <c r="N16">
-        <v>0.03643446379468378</v>
-      </c>
-      <c r="O16">
-        <v>0.6347305389221557</v>
-      </c>
-      <c r="P16">
-        <v>31.8</v>
-      </c>
-      <c r="Q16">
-        <v>0.03643446379468378</v>
-      </c>
-      <c r="R16">
-        <v>0.6347305389221557</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>260.8</v>
-      </c>
-      <c r="V16">
-        <v>0.2988084326306141</v>
-      </c>
-      <c r="W16">
-        <v>0.04603510061563907</v>
-      </c>
-      <c r="X16">
-        <v>0.08158792291087022</v>
-      </c>
-      <c r="Y16">
-        <v>-0.03555282229523115</v>
-      </c>
-      <c r="Z16">
-        <v>0.07532252923010048</v>
-      </c>
-      <c r="AA16">
-        <v>-0.0005852324318912593</v>
-      </c>
-      <c r="AB16">
-        <v>0.04602270412737212</v>
-      </c>
-      <c r="AC16">
-        <v>-0.04660793655926337</v>
-      </c>
-      <c r="AD16">
-        <v>1568.6</v>
-      </c>
-      <c r="AE16">
-        <v>29.84258042134747</v>
-      </c>
-      <c r="AF16">
-        <v>1598.442580421347</v>
-      </c>
-      <c r="AG16">
-        <v>1337.642580421347</v>
-      </c>
-      <c r="AH16">
-        <v>0.6468173513539949</v>
-      </c>
-      <c r="AI16">
-        <v>0.5735881712402973</v>
-      </c>
-      <c r="AJ16">
-        <v>0.6051469476155179</v>
-      </c>
-      <c r="AK16">
-        <v>0.5295617528242538</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>371.7061611374407</v>
-      </c>
-      <c r="AP16">
-        <v>316.9769147917885</v>
       </c>
     </row>
   </sheetData>
